--- a/StructureDefinition-profile-MessageHeader.xlsx
+++ b/StructureDefinition-profile-MessageHeader.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="400">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7427924-06:00</t>
+    <t>2026-02-09T22:05:43.2225008-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -653,6 +653,12 @@
     <t>open</t>
   </si>
   <si>
+    <t>MessageHeader.destination.endpoint.extension:endpoint</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.destination.endpoint|0.0.1-snapshot-3}
 </t>
   </si>
@@ -663,13 +669,31 @@
     <t>Indicates where the message should be routed.</t>
   </si>
   <si>
-    <t>The url may be a non-resolvable URI for systems that do not use standard network-based addresses.</t>
+    <t>Element `MessageHeader.destination.endpoint[x]` is mapped to FHIR R4 element `MessageHeader.destination.endpoint`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>MessageHeader.destination.endpoint.extension:endpointCanonical</t>
+  </si>
+  <si>
+    <t>endpointCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Endpoint in FHIR R4</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination.endpoint.extension:endpointReference</t>
+  </si>
+  <si>
+    <t>endpointReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Endpoint in FHIR R4</t>
+  </si>
+  <si>
     <t>MessageHeader.destination.endpoint.value</t>
   </si>
   <si>
@@ -722,14 +746,24 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.sender|0.0.1-snapshot-3}
+    <t>MessageHeader.sender.extension:sender</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
 </t>
   </si>
   <si>
     <t>Cross-version extension for MessageHeader.sender from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Use case is for where a (trusted) sending system is responsible for multiple organizations, and therefore cannot differentiate based on source endpoint / authentication alone. Proposing to remove and rely on Task to convey this information.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MessageHeader.sender` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MessageHeader.sender` is mapped to FHIR R4 element `MessageHeader.sender`.</t>
   </si>
   <si>
     <t>MessageHeader.sender.reference</t>
@@ -980,6 +1014,9 @@
     <t>MessageHeader.source.endpoint.extension</t>
   </si>
   <si>
+    <t>MessageHeader.source.endpoint.extension:endpoint</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.source.endpoint|0.0.1-snapshot-3}
 </t>
   </si>
@@ -987,6 +1024,15 @@
     <t>Cross-version extension for MessageHeader.source.endpoint[x] from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `MessageHeader.source.endpoint[x]` is mapped to FHIR R4 element `MessageHeader.source.endpoint`.</t>
+  </si>
+  <si>
+    <t>MessageHeader.source.endpoint.extension:endpointCanonical</t>
+  </si>
+  <si>
+    <t>MessageHeader.source.endpoint.extension:endpointReference</t>
+  </si>
+  <si>
     <t>MessageHeader.source.endpoint.value</t>
   </si>
   <si>
@@ -1087,6 +1133,12 @@
     <t>MessageHeader.response.identifier.extension</t>
   </si>
   <si>
+    <t>MessageHeader.response.identifier.extension:identifier</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.response.identifier|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1095,6 +1147,9 @@
   </si>
   <si>
     <t>The Bundle.identifier of the message to which this message is a response.</t>
+  </si>
+  <si>
+    <t>Element `MessageHeader.response.identifier` is mapped to FHIR R4 element `MessageHeader.response.identifier`.</t>
   </si>
   <si>
     <t>MessageHeader.response.identifier.value</t>
@@ -1506,7 +1561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AM65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1515,9 +1570,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.53125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.5" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.53125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.37109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -3687,7 +3742,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -3783,12 +3838,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3809,16 +3866,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3877,7 +3934,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>137</v>
@@ -3894,12 +3951,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3920,15 +3979,17 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3977,19 +4038,19 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
@@ -4003,12 +4064,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4026,21 +4089,21 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
         <v>217</v>
       </c>
+      <c r="N23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4088,36 +4151,36 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4137,23 +4200,19 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4213,24 +4272,24 @@
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4250,19 +4309,21 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4310,7 +4371,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4322,24 +4383,24 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4347,10 +4408,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4359,19 +4420,23 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4407,48 +4472,48 @@
         <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AD26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4471,17 +4536,15 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4530,25 +4593,25 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4556,10 +4619,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4570,7 +4633,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4579,20 +4642,18 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4629,37 +4690,37 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4667,12 +4728,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="B29" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4690,19 +4753,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4728,13 +4791,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4752,25 +4815,25 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4778,10 +4841,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4804,16 +4867,16 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4863,7 +4926,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4872,7 +4935,7 @@
         <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>98</v>
@@ -4881,7 +4944,7 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4889,10 +4952,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4915,16 +4978,16 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4950,13 +5013,13 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -4974,7 +5037,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5000,10 +5063,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5026,20 +5089,18 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5087,7 +5148,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5102,21 +5163,21 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5139,20 +5200,18 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>164</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5200,7 +5259,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5215,21 +5274,21 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>269</v>
+        <v>129</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5237,7 +5296,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5252,17 +5311,19 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5311,10 +5372,10 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>86</v>
@@ -5326,7 +5387,7 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>274</v>
@@ -5360,19 +5421,23 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5420,7 +5485,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5432,35 +5497,35 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5469,21 +5534,21 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5531,72 +5596,68 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5644,25 +5705,25 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5670,21 +5731,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5693,21 +5754,21 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5755,25 +5816,25 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>171</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5781,43 +5842,45 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>287</v>
+        <v>141</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5866,25 +5929,25 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>284</v>
+        <v>176</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>289</v>
+        <v>129</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5921,14 +5984,14 @@
         <v>164</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6029,17 +6092,17 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6103,10 +6166,10 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6114,10 +6177,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6125,7 +6188,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>86</v>
@@ -6140,19 +6203,17 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>193</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6201,10 +6262,10 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>86</v>
@@ -6216,10 +6277,10 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6227,10 +6288,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6250,19 +6311,21 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>199</v>
+        <v>309</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6310,7 +6373,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>167</v>
+        <v>306</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6322,13 +6385,13 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6336,10 +6399,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6350,7 +6413,7 @@
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6359,19 +6422,23 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6407,35 +6474,37 @@
         <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6443,10 +6512,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6469,17 +6538,15 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>311</v>
+        <v>198</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6528,19 +6595,19 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -6554,10 +6621,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6568,7 +6635,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6580,13 +6647,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6625,31 +6692,29 @@
         <v>76</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
@@ -6663,12 +6728,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>76</v>
       </c>
@@ -6686,23 +6753,21 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>214</v>
+        <v>322</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>315</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -6750,38 +6815,40 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>313</v>
+        <v>171</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>76</v>
       </c>
@@ -6799,21 +6866,21 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
@@ -6837,13 +6904,13 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -6861,38 +6928,40 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>319</v>
+        <v>171</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>76</v>
       </c>
@@ -6910,18 +6979,20 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>156</v>
+        <v>322</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -6970,25 +7041,25 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>329</v>
+        <v>171</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>332</v>
+        <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>333</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -6996,10 +7067,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7025,10 +7096,10 @@
         <v>164</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7079,7 +7150,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7097,7 +7168,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7105,21 +7176,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7128,21 +7199,23 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7190,71 +7263,69 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>171</v>
+        <v>328</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>168</v>
+        <v>332</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>132</v>
+        <v>335</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>174</v>
+        <v>336</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>141</v>
+        <v>338</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7279,13 +7350,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7303,36 +7374,36 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>176</v>
+        <v>334</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>129</v>
+        <v>342</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7340,7 +7411,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>86</v>
@@ -7355,18 +7426,16 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>340</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7414,10 +7483,10 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>86</v>
@@ -7429,10 +7498,10 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7440,10 +7509,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7469,10 +7538,10 @@
         <v>164</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7541,7 +7610,7 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -7549,18 +7618,18 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -7578,12 +7647,14 @@
         <v>132</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7620,14 +7691,16 @@
         <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>171</v>
@@ -7648,7 +7721,7 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -7656,42 +7729,46 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>345</v>
+        <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>346</v>
+        <v>174</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
       </c>
@@ -7739,7 +7816,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7748,7 +7825,7 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>137</v>
@@ -7757,7 +7834,7 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -7765,10 +7842,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7776,7 +7853,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>86</v>
@@ -7788,19 +7865,21 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
       </c>
@@ -7848,10 +7927,10 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>86</v>
@@ -7860,13 +7939,13 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -7874,10 +7953,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7885,7 +7964,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>86</v>
@@ -7897,23 +7976,19 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>352</v>
+        <v>198</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
       </c>
@@ -7937,13 +8012,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>358</v>
+        <v>76</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -7961,10 +8036,10 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>351</v>
+        <v>167</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>86</v>
@@ -7973,13 +8048,13 @@
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -7987,10 +8062,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7998,10 +8073,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8010,23 +8085,19 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>362</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>363</v>
+        <v>201</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8062,37 +8133,35 @@
         <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>361</v>
+        <v>171</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8100,21 +8169,23 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8123,23 +8194,21 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8187,7 +8256,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>369</v>
+        <v>171</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8196,16 +8265,16 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8213,10 +8282,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8236,21 +8305,19 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>377</v>
+        <v>164</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>380</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8298,27 +8365,477 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
+      <c r="AA62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AK62" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="M63" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MessageHeader.xlsx
+++ b/StructureDefinition-profile-MessageHeader.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="375">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2225008-06:00</t>
+    <t>2026-02-17T14:42:26.8565091-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -543,10 +543,40 @@
     <t>MessageHeader.destination.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination.extension:destination</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.destination|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MessageHeader.destination from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MessageHeader.destination` has is mapped to FHIR R4 element `MessageHeader.destination`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>MessageHeader.destination.modifierExtension</t>
@@ -628,81 +658,6 @@
     <t>./telecom</t>
   </si>
   <si>
-    <t>MessageHeader.destination.endpoint.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>MessageHeader.destination.endpoint.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>MessageHeader.destination.endpoint.extension:endpoint</t>
-  </si>
-  <si>
-    <t>endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.destination.endpoint|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MessageHeader.destination.endpoint[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates where the message should be routed.</t>
-  </si>
-  <si>
-    <t>Element `MessageHeader.destination.endpoint[x]` is mapped to FHIR R4 element `MessageHeader.destination.endpoint`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>MessageHeader.destination.endpoint.extension:endpointCanonical</t>
-  </si>
-  <si>
-    <t>endpointCanonical</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Endpoint in FHIR R4</t>
-  </si>
-  <si>
-    <t>MessageHeader.destination.endpoint.extension:endpointReference</t>
-  </si>
-  <si>
-    <t>endpointReference</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Endpoint in FHIR R4</t>
-  </si>
-  <si>
-    <t>MessageHeader.destination.endpoint.value</t>
-  </si>
-  <si>
-    <t>Primitive value for url</t>
-  </si>
-  <si>
-    <t>uri.value</t>
-  </si>
-  <si>
     <t>MessageHeader.destination.receiver</t>
   </si>
   <si>
@@ -763,7 +718,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MessageHeader.sender` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MessageHeader.sender` is mapped to FHIR R4 element `MessageHeader.sender`.</t>
+Element `MessageHeader.sender` has is mapped to FHIR R4 element `MessageHeader.sender`, but has no comparisons.</t>
   </si>
   <si>
     <t>MessageHeader.sender.reference</t>
@@ -917,6 +872,22 @@
     <t>MessageHeader.source.extension</t>
   </si>
   <si>
+    <t>MessageHeader.source.extension:source</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.source|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MessageHeader.source from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MessageHeader.source` has is mapped to FHIR R4 element `MessageHeader.source`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>MessageHeader.source.modifierExtension</t>
   </si>
   <si>
@@ -1008,34 +979,6 @@
     <t>./telecom[isNormalDatatype()]</t>
   </si>
   <si>
-    <t>MessageHeader.source.endpoint.id</t>
-  </si>
-  <si>
-    <t>MessageHeader.source.endpoint.extension</t>
-  </si>
-  <si>
-    <t>MessageHeader.source.endpoint.extension:endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.source.endpoint|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MessageHeader.source.endpoint[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MessageHeader.source.endpoint[x]` is mapped to FHIR R4 element `MessageHeader.source.endpoint`.</t>
-  </si>
-  <si>
-    <t>MessageHeader.source.endpoint.extension:endpointCanonical</t>
-  </si>
-  <si>
-    <t>MessageHeader.source.endpoint.extension:endpointReference</t>
-  </si>
-  <si>
-    <t>MessageHeader.source.endpoint.value</t>
-  </si>
-  <si>
     <t>MessageHeader.responsible</t>
   </si>
   <si>
@@ -1106,6 +1049,22 @@
     <t>MessageHeader.response.extension</t>
   </si>
   <si>
+    <t>MessageHeader.response.extension:response</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.response|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MessageHeader.response from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MessageHeader.response` has is mapped to FHIR R4 element `MessageHeader.response`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>MessageHeader.response.modifierExtension</t>
   </si>
   <si>
@@ -1125,40 +1084,6 @@
   </si>
   <si>
     <t>./acknowledges.id[isNormalDatatype()]</t>
-  </si>
-  <si>
-    <t>MessageHeader.response.identifier.id</t>
-  </si>
-  <si>
-    <t>MessageHeader.response.identifier.extension</t>
-  </si>
-  <si>
-    <t>MessageHeader.response.identifier.extension:identifier</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.response.identifier|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MessageHeader.response.identifier from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The Bundle.identifier of the message to which this message is a response.</t>
-  </si>
-  <si>
-    <t>Element `MessageHeader.response.identifier` is mapped to FHIR R4 element `MessageHeader.response.identifier`.</t>
-  </si>
-  <si>
-    <t>MessageHeader.response.identifier.value</t>
-  </si>
-  <si>
-    <t>Primitive value for id</t>
-  </si>
-  <si>
-    <t>string.value</t>
   </si>
   <si>
     <t>MessageHeader.response.code</t>
@@ -1561,7 +1486,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM65"/>
+  <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1570,9 +1495,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.5" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.53125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.37109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="41.3515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.5625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.0078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1580,7 +1505,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.59375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3070,7 +2995,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3092,14 +3017,12 @@
         <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3136,19 +3059,17 @@
         <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3166,7 +3087,7 @@
         <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
@@ -3174,14 +3095,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3194,26 +3117,24 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3261,7 +3182,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3270,7 +3191,7 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>137</v>
@@ -3279,7 +3200,7 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
@@ -3287,43 +3208,45 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3372,25 +3295,25 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3398,10 +3321,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3424,17 +3347,17 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3483,7 +3406,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3498,10 +3421,10 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3509,10 +3432,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3520,7 +3443,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -3535,19 +3458,17 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3596,10 +3517,10 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>86</v>
@@ -3611,10 +3532,10 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3622,10 +3543,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3633,7 +3554,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -3645,19 +3566,23 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3705,10 +3630,10 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>86</v>
@@ -3717,13 +3642,13 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3731,10 +3656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3745,7 +3670,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3754,19 +3679,21 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3802,50 +3729,50 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3863,21 +3790,23 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3925,40 +3854,38 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3979,17 +3906,15 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4038,25 +3963,25 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4064,14 +3989,12 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4080,7 +4003,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -4092,17 +4015,15 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4139,19 +4060,19 @@
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4160,7 +4081,7 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>137</v>
@@ -4177,12 +4098,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4203,15 +4126,17 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4260,19 +4185,19 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
@@ -4286,10 +4211,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4312,18 +4237,18 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4371,7 +4296,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4380,27 +4305,27 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4423,20 +4348,18 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4460,13 +4383,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4484,7 +4407,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4499,21 +4422,21 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4533,18 +4456,20 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4593,7 +4518,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4605,13 +4530,13 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4619,10 +4544,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4633,7 +4558,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4642,18 +4567,20 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4690,37 +4617,37 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4728,14 +4655,12 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4753,21 +4678,23 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4815,36 +4742,36 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>171</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4867,18 +4794,20 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4926,7 +4855,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4935,27 +4864,27 @@
         <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4963,7 +4892,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>86</v>
@@ -4978,18 +4907,18 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5013,13 +4942,13 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -5037,10 +4966,10 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>86</v>
@@ -5055,18 +4984,18 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5086,20 +5015,18 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
+        <v>165</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5148,7 +5075,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5160,13 +5087,13 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5174,10 +5101,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5185,10 +5112,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5197,20 +5124,18 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5247,37 +5172,35 @@
         <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5285,18 +5208,20 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5308,23 +5233,21 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="N34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5372,71 +5295,71 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>272</v>
+        <v>141</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5485,36 +5408,36 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5522,7 +5445,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
@@ -5537,17 +5460,17 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>187</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5596,10 +5519,10 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>86</v>
@@ -5611,21 +5534,21 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5645,19 +5568,21 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>164</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>165</v>
+        <v>286</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5705,7 +5630,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5717,13 +5642,13 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5731,21 +5656,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5754,21 +5679,21 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>133</v>
+        <v>292</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5816,25 +5741,25 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5842,45 +5767,43 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>174</v>
+        <v>298</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>141</v>
+        <v>300</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5929,25 +5852,25 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>176</v>
+        <v>296</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>129</v>
+        <v>302</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5955,10 +5878,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5966,7 +5889,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>86</v>
@@ -5981,17 +5904,19 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>178</v>
+        <v>304</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6040,10 +5965,10 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>86</v>
@@ -6055,10 +5980,10 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6066,10 +5991,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6092,17 +6017,19 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6151,7 +6078,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6166,21 +6093,21 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6203,17 +6130,17 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6238,13 +6165,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6262,7 +6189,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6277,21 +6204,21 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6314,18 +6241,16 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>307</v>
+        <v>156</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>310</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6373,7 +6298,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6388,10 +6313,10 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6399,10 +6324,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6410,7 +6335,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>86</v>
@@ -6422,23 +6347,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>314</v>
+        <v>165</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6486,10 +6407,10 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>86</v>
@@ -6498,13 +6419,13 @@
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>318</v>
+        <v>168</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6512,10 +6433,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6526,7 +6447,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6538,13 +6459,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6583,31 +6504,29 @@
         <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -6621,12 +6540,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6635,7 +6556,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6647,15 +6568,17 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6692,17 +6615,19 @@
         <v>76</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6711,7 +6636,7 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>137</v>
@@ -6728,46 +6653,46 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>322</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>323</v>
+        <v>183</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>315</v>
+        <v>184</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -6815,7 +6740,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6824,7 +6749,7 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>137</v>
@@ -6833,7 +6758,7 @@
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6841,20 +6766,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>86</v>
@@ -6866,21 +6789,21 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>322</v>
+        <v>88</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
@@ -6928,25 +6851,25 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>171</v>
+        <v>338</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -6954,20 +6877,18 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>86</v>
@@ -6979,21 +6900,23 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>217</v>
+        <v>346</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7017,13 +6940,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7041,25 +6964,25 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>171</v>
+        <v>344</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7067,10 +6990,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7090,19 +7013,23 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>164</v>
+        <v>355</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>219</v>
+        <v>356</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7150,7 +7077,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>220</v>
+        <v>354</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7162,13 +7089,13 @@
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7176,10 +7103,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7190,7 +7117,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7202,19 +7129,19 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>222</v>
+        <v>363</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>272</v>
+        <v>367</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7263,13 +7190,13 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
@@ -7278,21 +7205,21 @@
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>333</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7315,17 +7242,17 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7350,13 +7277,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7374,7 +7301,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7389,1453 +7316,12 @@
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AC59" s="2"/>
-      <c r="AD59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="D60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AM65" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MessageHeader.xlsx
+++ b/StructureDefinition-profile-MessageHeader.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="386">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8565091-06:00</t>
+    <t>2026-02-20T11:59:20.888895-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MessageHeader|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MessageHeader</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -565,7 +565,7 @@
     <t>destination</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.destination|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.destination}
 </t>
   </si>
   <si>
@@ -707,7 +707,7 @@
     <t>sender</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -848,6 +848,40 @@
     <t>unique(./controlAct[classCode="CACT" and classCode="EVN" and isNormalAct()]/participation[isHighest(priorityCode) and typeCode="AUT" and isNormalParticipation]/role[classCode="ASSIGNED" and isNormalRole()]/player[isNormalEntity() and classCode=("DEV", "PSN") and determinerCode="INST"])</t>
   </si>
   <si>
+    <t>MessageHeader.author.id</t>
+  </si>
+  <si>
+    <t>MessageHeader.author.extension</t>
+  </si>
+  <si>
+    <t>MessageHeader.author.extension:author</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MessageHeader.author from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MessageHeader.author` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MessageHeader.author` has is mapped to FHIR R4 element `MessageHeader.author`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>MessageHeader.author.reference</t>
+  </si>
+  <si>
+    <t>MessageHeader.author.type</t>
+  </si>
+  <si>
+    <t>MessageHeader.author.identifier</t>
+  </si>
+  <si>
+    <t>MessageHeader.author.display</t>
+  </si>
+  <si>
     <t>MessageHeader.source</t>
   </si>
   <si>
@@ -878,7 +912,7 @@
     <t>source</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.source|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.source}
 </t>
   </si>
   <si>
@@ -1055,7 +1089,7 @@
     <t>response</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.response|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.response}
 </t>
   </si>
   <si>
@@ -1486,7 +1520,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AM59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1505,7 +1539,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.59375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.18359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4892,7 +4926,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>86</v>
@@ -4904,21 +4938,19 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
+        <v>166</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4966,10 +4998,10 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>86</v>
@@ -4978,24 +5010,24 @@
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>270</v>
+        <v>168</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5006,7 +5038,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5018,13 +5050,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5063,37 +5095,37 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5101,21 +5133,23 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5127,15 +5161,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5172,14 +5208,16 @@
         <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AC33" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>174</v>
@@ -5208,20 +5246,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5233,19 +5269,19 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>276</v>
+        <v>164</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5295,25 +5331,25 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5321,46 +5357,44 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5384,13 +5418,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5408,19 +5442,19 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5434,10 +5468,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5460,18 +5494,18 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5519,7 +5553,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5534,10 +5568,10 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -5545,10 +5579,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5574,15 +5608,15 @@
         <v>164</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5630,7 +5664,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5645,10 +5679,10 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5656,10 +5690,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5667,7 +5701,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>86</v>
@@ -5682,17 +5716,17 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5741,10 +5775,10 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>86</v>
@@ -5756,21 +5790,21 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5790,21 +5824,19 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>297</v>
+        <v>164</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>298</v>
+        <v>165</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>299</v>
+        <v>166</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5852,7 +5884,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5864,13 +5896,13 @@
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>302</v>
+        <v>168</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5878,10 +5910,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5892,7 +5924,7 @@
         <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -5901,23 +5933,19 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>304</v>
+        <v>170</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5953,37 +5981,35 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>303</v>
+        <v>174</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -5991,18 +6017,20 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>86</v>
@@ -6014,23 +6042,21 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6078,69 +6104,71 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>309</v>
+        <v>174</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>316</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>317</v>
+        <v>183</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>319</v>
+        <v>141</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6165,13 +6193,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6189,36 +6217,36 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>323</v>
+        <v>129</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6241,16 +6269,18 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>326</v>
+        <v>187</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6298,7 +6328,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6313,10 +6343,10 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6324,10 +6354,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6347,19 +6377,21 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>164</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>165</v>
+        <v>297</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>166</v>
+        <v>298</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6407,7 +6439,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>167</v>
+        <v>296</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6419,13 +6451,13 @@
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>168</v>
+        <v>301</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6433,10 +6465,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6447,7 +6479,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6456,19 +6488,21 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>170</v>
+        <v>303</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>171</v>
+        <v>304</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6504,35 +6538,37 @@
         <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>174</v>
+        <v>302</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6540,14 +6576,12 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6565,21 +6599,21 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6627,25 +6661,25 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>174</v>
+        <v>307</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6653,45 +6687,45 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>183</v>
+        <v>315</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>141</v>
+        <v>317</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6740,25 +6774,25 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>185</v>
+        <v>314</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>129</v>
+        <v>319</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6766,10 +6800,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6777,7 +6811,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>86</v>
@@ -6792,17 +6826,19 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -6851,10 +6887,10 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>86</v>
@@ -6866,21 +6902,21 @@
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6888,7 +6924,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>86</v>
@@ -6903,19 +6939,17 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>327</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -6940,13 +6974,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>349</v>
+        <v>149</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -6964,10 +6998,10 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>86</v>
@@ -6979,21 +7013,21 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7016,20 +7050,16 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>355</v>
+        <v>156</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7077,7 +7107,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7092,10 +7122,10 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7103,10 +7133,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7117,7 +7147,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7126,23 +7156,19 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>363</v>
+        <v>164</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7190,25 +7216,25 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>362</v>
+        <v>167</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>368</v>
+        <v>168</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7216,10 +7242,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7230,7 +7256,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7239,21 +7265,19 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>370</v>
+        <v>132</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>371</v>
+        <v>170</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>372</v>
+        <v>171</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7289,39 +7313,824 @@
         <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="O57" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AK57" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="L58" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MessageHeader.xlsx
+++ b/StructureDefinition-profile-MessageHeader.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="365">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.888895-06:00</t>
+    <t>2026-02-21T13:36:54.2920532-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MessageHeader</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MessageHeader|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -543,6 +543,103 @@
     <t>MessageHeader.destination.extension</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination.name</t>
+  </si>
+  <si>
+    <t>Name of system</t>
+  </si>
+  <si>
+    <t>Human-readable name for the target system.</t>
+  </si>
+  <si>
+    <t>May be used for routing of response and/or to support audit.</t>
+  </si>
+  <si>
+    <t>MSH-5</t>
+  </si>
+  <si>
+    <t>unique(./entity[determinerCode="INST" and (classCode=("DEV", "PSN", "ORG"]/name[type='ST' and isNormalDatatype()])</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Particular delivery destination within the destination</t>
+  </si>
+  <si>
+    <t>Identifies the target end system in situations where the initial message transmission is to an intermediary system.</t>
+  </si>
+  <si>
+    <t>Supports multi-hop routing.</t>
+  </si>
+  <si>
+    <t>unique(./entity[determinerCode="INST" and (classCode=("DEV", "PSN", "ORG"]</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination.endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url
+</t>
+  </si>
+  <si>
+    <t>Actual destination address or id</t>
+  </si>
+  <si>
+    <t>Indicates where the message should be routed to.</t>
+  </si>
+  <si>
+    <t>The id may be a non-resolvable URI for systems that do not use standard network-based addresses.</t>
+  </si>
+  <si>
+    <t>Identifies where to route the message.</t>
+  </si>
+  <si>
+    <t>MSH-25 (or MSH-6)</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination.endpoint.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination.endpoint.extension</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -556,106 +653,54 @@
     <t>open</t>
   </si>
   <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MessageHeader.destination.extension:destination</t>
-  </si>
-  <si>
-    <t>destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.destination}
+    <t>MessageHeader.destination.endpoint.extension:endpoint</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.destination.endpoint|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MessageHeader.destination from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MessageHeader.destination` has is mapped to FHIR R4 element `MessageHeader.destination`, but has no comparisons.</t>
+    <t>Cross-version extension for MessageHeader.destination.endpoint[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates where the message should be routed.</t>
+  </si>
+  <si>
+    <t>Element `MessageHeader.destination.endpoint[x]` is mapped to FHIR R4 element `MessageHeader.destination.endpoint` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>MessageHeader.destination.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>MessageHeader.destination.name</t>
-  </si>
-  <si>
-    <t>Name of system</t>
-  </si>
-  <si>
-    <t>Human-readable name for the target system.</t>
-  </si>
-  <si>
-    <t>May be used for routing of response and/or to support audit.</t>
-  </si>
-  <si>
-    <t>MSH-5</t>
-  </si>
-  <si>
-    <t>unique(./entity[determinerCode="INST" and (classCode=("DEV", "PSN", "ORG"]/name[type='ST' and isNormalDatatype()])</t>
-  </si>
-  <si>
-    <t>MessageHeader.destination.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Particular delivery destination within the destination</t>
-  </si>
-  <si>
-    <t>Identifies the target end system in situations where the initial message transmission is to an intermediary system.</t>
-  </si>
-  <si>
-    <t>Supports multi-hop routing.</t>
-  </si>
-  <si>
-    <t>unique(./entity[determinerCode="INST" and (classCode=("DEV", "PSN", "ORG"]</t>
-  </si>
-  <si>
-    <t>MessageHeader.destination.endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url
-</t>
-  </si>
-  <si>
-    <t>Actual destination address or id</t>
-  </si>
-  <si>
-    <t>Indicates where the message should be routed to.</t>
-  </si>
-  <si>
-    <t>The id may be a non-resolvable URI for systems that do not use standard network-based addresses.</t>
-  </si>
-  <si>
-    <t>Identifies where to route the message.</t>
-  </si>
-  <si>
-    <t>MSH-25 (or MSH-6)</t>
-  </si>
-  <si>
-    <t>./telecom</t>
+    <t>MessageHeader.destination.endpoint.extension:endpointCanonical</t>
+  </si>
+  <si>
+    <t>endpointCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Endpoint in FHIR R4</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination.endpoint.extension:endpointReference</t>
+  </si>
+  <si>
+    <t>endpointReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Endpoint in FHIR R4</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination.endpoint.value</t>
+  </si>
+  <si>
+    <t>Primitive value for url</t>
+  </si>
+  <si>
+    <t>uri.value</t>
   </si>
   <si>
     <t>MessageHeader.destination.receiver</t>
@@ -692,119 +737,6 @@
     <t>Use case is for where a (trusted) sending system is responsible for multiple organizations, and therefore cannot differentiate based on source endpoint / authentication alone.</t>
   </si>
   <si>
-    <t>MessageHeader.sender.id</t>
-  </si>
-  <si>
-    <t>MessageHeader.sender.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>MessageHeader.sender.extension:sender</t>
-  </si>
-  <si>
-    <t>sender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MessageHeader.sender from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MessageHeader.sender` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MessageHeader.sender` has is mapped to FHIR R4 element `MessageHeader.sender`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MessageHeader.sender.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>MessageHeader.sender.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MessageHeader.sender.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>MessageHeader.sender.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>MessageHeader.enterer</t>
   </si>
   <si>
@@ -848,40 +780,6 @@
     <t>unique(./controlAct[classCode="CACT" and classCode="EVN" and isNormalAct()]/participation[isHighest(priorityCode) and typeCode="AUT" and isNormalParticipation]/role[classCode="ASSIGNED" and isNormalRole()]/player[isNormalEntity() and classCode=("DEV", "PSN") and determinerCode="INST"])</t>
   </si>
   <si>
-    <t>MessageHeader.author.id</t>
-  </si>
-  <si>
-    <t>MessageHeader.author.extension</t>
-  </si>
-  <si>
-    <t>MessageHeader.author.extension:author</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MessageHeader.author from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MessageHeader.author` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MessageHeader.author` has is mapped to FHIR R4 element `MessageHeader.author`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MessageHeader.author.reference</t>
-  </si>
-  <si>
-    <t>MessageHeader.author.type</t>
-  </si>
-  <si>
-    <t>MessageHeader.author.identifier</t>
-  </si>
-  <si>
-    <t>MessageHeader.author.display</t>
-  </si>
-  <si>
     <t>MessageHeader.source</t>
   </si>
   <si>
@@ -904,22 +802,6 @@
   </si>
   <si>
     <t>MessageHeader.source.extension</t>
-  </si>
-  <si>
-    <t>MessageHeader.source.extension:source</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.source}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MessageHeader.source from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MessageHeader.source` has is mapped to FHIR R4 element `MessageHeader.source`, but has no comparisons.</t>
   </si>
   <si>
     <t>MessageHeader.source.modifierExtension</t>
@@ -1013,6 +895,34 @@
     <t>./telecom[isNormalDatatype()]</t>
   </si>
   <si>
+    <t>MessageHeader.source.endpoint.id</t>
+  </si>
+  <si>
+    <t>MessageHeader.source.endpoint.extension</t>
+  </si>
+  <si>
+    <t>MessageHeader.source.endpoint.extension:endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.source.endpoint|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MessageHeader.source.endpoint[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MessageHeader.source.endpoint[x]` is mapped to FHIR R4 element `MessageHeader.source.endpoint` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>MessageHeader.source.endpoint.extension:endpointCanonical</t>
+  </si>
+  <si>
+    <t>MessageHeader.source.endpoint.extension:endpointReference</t>
+  </si>
+  <si>
+    <t>MessageHeader.source.endpoint.value</t>
+  </si>
+  <si>
     <t>MessageHeader.responsible</t>
   </si>
   <si>
@@ -1083,41 +993,59 @@
     <t>MessageHeader.response.extension</t>
   </si>
   <si>
-    <t>MessageHeader.response.extension:response</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.response}
+    <t>MessageHeader.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>MessageHeader.response.identifier</t>
+  </si>
+  <si>
+    <t>Id of original message</t>
+  </si>
+  <si>
+    <t>The MessageHeader.id of the message to which this message is a response.</t>
+  </si>
+  <si>
+    <t>Allows receiver to know what message is being responded to.</t>
+  </si>
+  <si>
+    <t>MSA-2</t>
+  </si>
+  <si>
+    <t>./acknowledges.id[isNormalDatatype()]</t>
+  </si>
+  <si>
+    <t>MessageHeader.response.identifier.id</t>
+  </si>
+  <si>
+    <t>MessageHeader.response.identifier.extension</t>
+  </si>
+  <si>
+    <t>MessageHeader.response.identifier.extension:identifier</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MessageHeader.response.identifier|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MessageHeader.response from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MessageHeader.response` has is mapped to FHIR R4 element `MessageHeader.response`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MessageHeader.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>MessageHeader.response.identifier</t>
-  </si>
-  <si>
-    <t>Id of original message</t>
-  </si>
-  <si>
-    <t>The MessageHeader.id of the message to which this message is a response.</t>
-  </si>
-  <si>
-    <t>Allows receiver to know what message is being responded to.</t>
-  </si>
-  <si>
-    <t>MSA-2</t>
-  </si>
-  <si>
-    <t>./acknowledges.id[isNormalDatatype()]</t>
+    <t>Cross-version extension for MessageHeader.response.identifier from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The Bundle.identifier of the message to which this message is a response.</t>
+  </si>
+  <si>
+    <t>Element `MessageHeader.response.identifier` is mapped to FHIR R4 element `MessageHeader.response.identifier` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>MessageHeader.response.identifier.value</t>
+  </si>
+  <si>
+    <t>Primitive value for id</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>MessageHeader.response.code</t>
@@ -1520,7 +1448,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM59"/>
+  <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1529,9 +1457,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.5625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="55.5" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.53125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.37109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1539,7 +1467,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.18359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1557,7 +1485,7 @@
     <col min="26" max="26" width="51.0" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="31.21484375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3029,7 +2957,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3051,12 +2979,14 @@
         <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3093,17 +3023,19 @@
         <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3121,7 +3053,7 @@
         <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
@@ -3129,16 +3061,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3151,24 +3081,26 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3216,7 +3148,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3225,7 +3157,7 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>137</v>
@@ -3234,7 +3166,7 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
@@ -3242,45 +3174,43 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3329,25 +3259,25 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3355,10 +3285,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3381,17 +3311,17 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3440,7 +3370,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3455,10 +3385,10 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3466,10 +3396,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3477,7 +3407,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -3492,17 +3422,19 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3551,10 +3483,10 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>86</v>
@@ -3566,10 +3498,10 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3577,10 +3509,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3588,7 +3520,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -3600,23 +3532,19 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3664,10 +3592,10 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>86</v>
@@ -3676,13 +3604,13 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3690,10 +3618,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3704,7 +3632,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3713,21 +3641,19 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3763,50 +3689,50 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3824,23 +3750,21 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O21" t="s" s="2">
         <v>210</v>
       </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3888,38 +3812,40 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3940,15 +3866,17 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3997,25 +3925,25 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4023,12 +3951,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4037,7 +3967,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -4049,15 +3979,17 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4094,19 +4026,19 @@
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4115,7 +4047,7 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>137</v>
@@ -4132,14 +4064,12 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4160,17 +4090,15 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4219,19 +4147,19 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
@@ -4245,10 +4173,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4271,18 +4199,18 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4330,7 +4258,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4339,27 +4267,27 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4382,18 +4310,20 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4417,13 +4347,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4441,7 +4371,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4456,21 +4386,21 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4493,18 +4423,20 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4552,7 +4484,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4567,21 +4499,21 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4604,18 +4536,20 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4663,7 +4597,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4678,21 +4612,21 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4700,7 +4634,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
@@ -4715,19 +4649,17 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4776,10 +4708,10 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>86</v>
@@ -4791,21 +4723,21 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4825,23 +4757,19 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4889,7 +4817,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4901,35 +4829,35 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4941,15 +4869,17 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4998,19 +4928,19 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>76</v>
@@ -5024,14 +4954,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5044,22 +4974,26 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5095,19 +5029,19 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5125,7 +5059,7 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5133,14 +5067,12 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5158,21 +5090,21 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5220,25 +5152,25 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5246,10 +5178,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5275,15 +5207,15 @@
         <v>164</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5331,7 +5263,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5340,16 +5272,16 @@
         <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5357,10 +5289,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5383,18 +5315,18 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5418,13 +5350,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5442,7 +5374,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5457,10 +5389,10 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5468,10 +5400,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5494,18 +5426,18 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5553,7 +5485,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5568,10 +5500,10 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -5579,10 +5511,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5590,7 +5522,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
@@ -5605,18 +5537,20 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5664,10 +5598,10 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>86</v>
@@ -5679,10 +5613,10 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5690,10 +5624,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5701,7 +5635,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>86</v>
@@ -5713,21 +5647,19 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>198</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>280</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5775,10 +5707,10 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>86</v>
@@ -5787,24 +5719,24 @@
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5815,7 +5747,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5827,13 +5759,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5872,37 +5804,35 @@
         <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5910,21 +5840,23 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -5936,15 +5868,17 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5981,17 +5915,19 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6000,7 +5936,7 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>137</v>
@@ -6017,20 +5953,20 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="B41" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="C41" t="s" s="2">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>86</v>
@@ -6051,7 +5987,7 @@
         <v>288</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>289</v>
@@ -6104,7 +6040,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6113,7 +6049,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>137</v>
@@ -6130,46 +6066,46 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="D42" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>287</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6217,7 +6153,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6226,7 +6162,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>137</v>
@@ -6235,7 +6171,7 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6243,10 +6179,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6266,21 +6202,19 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>164</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>293</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6328,7 +6262,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6340,13 +6274,13 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6354,10 +6288,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6380,17 +6314,19 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6439,7 +6375,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6454,21 +6390,21 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6491,17 +6427,17 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6526,13 +6462,13 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -6550,7 +6486,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6565,21 +6501,21 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6602,18 +6538,16 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>311</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6661,7 +6595,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6698,7 +6632,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>86</v>
@@ -6710,23 +6644,19 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
+        <v>165</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -6774,10 +6704,10 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>86</v>
@@ -6786,13 +6716,13 @@
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>319</v>
+        <v>168</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6800,21 +6730,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6823,23 +6753,21 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>321</v>
+        <v>133</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>322</v>
+        <v>170</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
@@ -6887,69 +6815,71 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>320</v>
+        <v>171</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>324</v>
+        <v>168</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>327</v>
+        <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>328</v>
+        <v>174</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>330</v>
+        <v>141</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -6974,13 +6904,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>332</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -6998,36 +6928,36 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>326</v>
+        <v>176</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>333</v>
+        <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>334</v>
+        <v>129</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7035,7 +6965,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>86</v>
@@ -7050,16 +6980,18 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7107,10 +7039,10 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>86</v>
@@ -7122,10 +7054,10 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7133,10 +7065,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7162,10 +7094,10 @@
         <v>164</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7234,7 +7166,7 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7242,10 +7174,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7253,7 +7185,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -7271,10 +7203,10 @@
         <v>132</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7313,17 +7245,17 @@
         <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7349,20 +7281,20 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>86</v>
@@ -7377,16 +7309,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7436,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7445,7 +7377,7 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>137</v>
@@ -7462,46 +7394,42 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>183</v>
+        <v>332</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
@@ -7549,25 +7477,25 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -7575,10 +7503,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7601,17 +7529,19 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7636,13 +7566,13 @@
         <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>76</v>
@@ -7660,7 +7590,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>86</v>
@@ -7675,10 +7605,10 @@
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -7686,10 +7616,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7697,7 +7627,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>86</v>
@@ -7712,19 +7642,19 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>345</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7749,13 +7679,13 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>362</v>
+        <v>76</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -7773,10 +7703,10 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>86</v>
@@ -7788,10 +7718,10 @@
         <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -7799,10 +7729,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7813,7 +7743,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -7825,19 +7755,19 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -7886,13 +7816,13 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
@@ -7901,10 +7831,10 @@
         <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -7912,10 +7842,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7926,7 +7856,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -7938,19 +7868,17 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -7999,13 +7927,13 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
@@ -8017,120 +7945,9 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
     </row>
